--- a/camp4.1.xlsx
+++ b/camp4.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93D7CE2-64C7-4A7A-837D-83B676023FD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A221D8-BEE6-4327-8BDB-43690A78DB89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Rejected</t>
+  </si>
+  <si>
+    <t>Wrong TC</t>
   </si>
 </sst>
 </file>
@@ -543,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,6 +764,9 @@
       <c r="I10" t="s">
         <v>47</v>
       </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
